--- a/Banco Central/1/5/Indicadores de coyuntura 2003 a 2021 - Trimestral.xlsx
+++ b/Banco Central/1/5/Indicadores de coyuntura 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Serie</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +958,7 @@
         <v>81.5</v>
       </c>
       <c r="D25">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -966,10 +969,10 @@
         <v>79.5</v>
       </c>
       <c r="C26">
-        <v>80.90000000000001</v>
+        <v>80.8</v>
       </c>
       <c r="D26">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1053,7 +1056,7 @@
         <v>87.40000000000001</v>
       </c>
       <c r="D32">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1291,7 +1294,7 @@
         <v>102.7</v>
       </c>
       <c r="D49">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1361,7 +1364,7 @@
         <v>105.6</v>
       </c>
       <c r="D54">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1456,7 +1459,7 @@
         <v>114.1</v>
       </c>
       <c r="C61">
-        <v>109.2</v>
+        <v>109.1</v>
       </c>
       <c r="D61">
         <v>0.9</v>
@@ -1470,7 +1473,7 @@
         <v>108.5</v>
       </c>
       <c r="C62">
-        <v>110.3</v>
+        <v>110.4</v>
       </c>
       <c r="D62">
         <v>1.1</v>
@@ -1554,7 +1557,7 @@
         <v>110</v>
       </c>
       <c r="C68">
-        <v>114.1</v>
+        <v>114</v>
       </c>
       <c r="D68">
         <v>0.8</v>
@@ -1571,7 +1574,7 @@
         <v>109.7</v>
       </c>
       <c r="D69">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1585,7 +1588,7 @@
         <v>111.8</v>
       </c>
       <c r="D70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1613,7 +1616,7 @@
         <v>102.9</v>
       </c>
       <c r="D72">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1627,7 +1630,7 @@
         <v>109.6</v>
       </c>
       <c r="D73">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1638,10 +1641,24 @@
         <v>110.3</v>
       </c>
       <c r="C74">
-        <v>113.1</v>
+        <v>113.2</v>
       </c>
       <c r="D74">
-        <v>3.2</v>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75">
+        <v>114.4</v>
+      </c>
+      <c r="C75">
+        <v>113.9</v>
+      </c>
+      <c r="D75">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
